--- a/data/Rivers/RetarukeatWhanganuiConfluence_b5224c7c55.xlsx
+++ b/data/Rivers/RetarukeatWhanganuiConfluence_b5224c7c55.xlsx
@@ -492,7 +492,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ASPM</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
@@ -519,7 +519,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MCI</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C3" s="2" t="n">
@@ -546,7 +546,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>QMCI</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C4" s="2" t="n">
@@ -573,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ASPM</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C5" s="2" t="n">
@@ -600,7 +600,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MCI</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C6" s="2" t="n">
@@ -627,7 +627,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>QMCI</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C7" s="2" t="n">
@@ -654,7 +654,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ASPM</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C8" s="2" t="n">
@@ -681,7 +681,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>MCI</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C9" s="2" t="n">
@@ -708,7 +708,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>QMCI</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C10" s="2" t="n">
@@ -735,7 +735,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ASPM</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C11" s="2" t="n">
@@ -762,7 +762,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>MCI</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C12" s="2" t="n">
@@ -789,7 +789,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>QMCI</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C13" s="2" t="n">
@@ -816,7 +816,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ASPM</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C14" s="2" t="n">
@@ -843,7 +843,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>MCI</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C15" s="2" t="n">
@@ -870,7 +870,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>QMCI</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C16" s="2" t="n">

--- a/data/Rivers/RetarukeatWhanganuiConfluence_b5224c7c55.xlsx
+++ b/data/Rivers/RetarukeatWhanganuiConfluence_b5224c7c55.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -889,6 +889,87 @@
       </c>
       <c r="I16" t="inlineStr"/>
     </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Retaruke at Whanganui Confluence</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="n">
+        <v>45022</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.532</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="n">
+        <v>200</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Retaruke at Whanganui Confluence</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="n">
+        <v>45022</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>112.38</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="n">
+        <v>200</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Retaruke at Whanganui Confluence</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="n">
+        <v>45022</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>6.418</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="n">
+        <v>200</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/Rivers/RetarukeatWhanganuiConfluence_b5224c7c55.xlsx
+++ b/data/Rivers/RetarukeatWhanganuiConfluence_b5224c7c55.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="34">
   <si>
     <t>site name</t>
   </si>
@@ -107,6 +107,15 @@
   </si>
   <si>
     <t>6.418</t>
+  </si>
+  <si>
+    <t>0.577</t>
+  </si>
+  <si>
+    <t>112.00</t>
+  </si>
+  <si>
+    <t>7.219</t>
   </si>
 </sst>
 </file>
@@ -468,7 +477,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -809,6 +818,57 @@
         <v>200</v>
       </c>
     </row>
+    <row r="20" spans="1:8">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="2">
+        <v>45342.41719907407</v>
+      </c>
+      <c r="D20" t="s">
+        <v>31</v>
+      </c>
+      <c r="H20">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="2">
+        <v>45342.41719907407</v>
+      </c>
+      <c r="D21" t="s">
+        <v>32</v>
+      </c>
+      <c r="H21">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="2">
+        <v>45342.41719907407</v>
+      </c>
+      <c r="D22" t="s">
+        <v>33</v>
+      </c>
+      <c r="H22">
+        <v>200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
